--- a/Question_Sets/Role-specific skills/Data Wrangling.xlsx
+++ b/Question_Sets/Role-specific skills/Data Wrangling.xlsx
@@ -16,23 +16,64 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are defining a data processing pipeline where you want to extract information from several JSON files.Which abstract data type should you use to store the retrieved information?', 'ques_type': 2, 'options': ['Map', 'Queue', 'Tree', 'Stack'], 'score': 'Map'}, {'title': 'You are working with time series data where the difference between two data points is one second. After observing the dataset, you notice several missing values in it.Which missing value imputation technique should you use?', 'ques_type': 2, 'options': ['Imputation with mean', 'Imputation with mode', 'Imputation with median', 'Imputation with previous or next timestamp value'], 'score': 'Imputation with previous or next timestamp value'}, {'title': 'You are documenting an existing data preprocessing code, and you want to classify all applied changes into two categories: intrarecord structuring and interrecord structuring. You have information about the shape (number of rows x number of columns) of the dataset before and after each modification.Which of the following modifications should you classify as interrecord structuring?', 'ques_type': 15, 'options': ['(1, 1) -&amp;gt (2, 1)', '(1, 1) -&amp;gt (1, 2)', '(3, 3) -&amp;gt (6, 6)', '(6, 6) -&amp;gt (3, 3)', '(10, 8) -&amp;gt (9, 8)'], 'score': ['(3, 3) -&amp;gt (6, 6)', '(6, 6) -&amp;gt (3, 3)']}, {'title': 'You are preprocessing employee data for your company, and you want to apply syntactic profiling to it. You are currently checking individual employee IDs. The IDs consist of numbers only, with a length of two numbers.What will be the length of the set of valid syntactic values?', 'ques_type': 2, 'options': ['9', '81', '99', '100'], 'score': '100'}]</t>
+    <t>questions = [
+    {
+        "title": "You are defining a data processing pipeline where you want to extract information from several JSON files.Which abstract data type should you use to store the retrieved information?",
+        "ques_type": 2,
+        "options": [
+            "Map",
+            "Queue",
+            "Tree",
+            "Stack"
+        ],
+        "score": "Map"
+    },
+    {
+        "title": "You are working with time series data where the difference between two data points is one second. After observing the dataset, you notice several missing values in it.Which missing value imputation technique should you use?",
+        "ques_type": 2,
+        "options": [
+            "Imputation with mean",
+            "Imputation with mode",
+            "Imputation with median",
+            "Imputation with previous or next timestamp value"
+        ],
+        "score": "Imputation with previous or next timestamp value"
+    },
+    {
+        "title": "You are documenting an existing data preprocessing code, and you want to classify all applied changes into two categories: intrarecord structuring and interrecord structuring. You have information about the shape (number of rows x number of columns) of the dataset before and after each modification.Which of the following modifications should you classify as interrecord structuring?",
+        "ques_type": 15,
+        "options": [
+            "(1, 1) -&amp;gt (2, 1)",
+            "(1, 1) -&amp;gt (1, 2)",
+            "(3, 3) -&amp;gt (6, 6)",
+            "(6, 6) -&amp;gt (3, 3)",
+            "(10, 8) -&amp;gt (9, 8)"
+        ],
+        "score": [
+            "(3, 3) -&amp;gt (6, 6)",
+            "(6, 6) -&amp;gt (3, 3)"
+        ]
+    },
+    {
+        "title": "You are preprocessing employee data for your company, and you want to apply syntactic profiling to it. You are currently checking individual employee IDs. The IDs consist of numbers only, with a length of two numbers.What will be the length of the set of valid syntactic values?",
+        "ques_type": 2,
+        "options": [
+            "9",
+            "81",
+            "99",
+            "100"
+        ],
+        "score": "100"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +97,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
